--- a/long_first/synthetic_dataset_5.xlsx
+++ b/long_first/synthetic_dataset_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45928</v>
+        <v>46175</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -430,26 +430,26 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45921</v>
+        <v>46182</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45914</v>
+        <v>46140</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -458,82 +458,82 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45921</v>
+        <v>46161</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45928</v>
+        <v>46147</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45928</v>
+        <v>46147</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45914</v>
+        <v>46168</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45914</v>
+        <v>46161</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45928</v>
+        <v>46182</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -542,12 +542,12 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45921</v>
+        <v>46189</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -556,49 +556,343 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45914</v>
+        <v>46182</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45914</v>
+        <v>46154</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>159</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45914</v>
+        <v>46154</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>46161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>46140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>46168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>46140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>46168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>46168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>46154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>46147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>46140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>46147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>46161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>46168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>46175</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>46154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>46175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>46189</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>46189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>46182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>46189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>46161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>46182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
